--- a/pred_ohlcv/54_21/2020-01-16 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 AE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>26797.49841889169</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>26628.66931889169</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>60050.71131889168</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>106376.1146021068</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>95994.9767021068</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>108468.2160021068</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>110846.2160021068</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>114224.7343021068</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>578485.1459476058</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>552340.8222476059</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>611851.7834476059</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>595653.3892476059</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>582152.824818472</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>637573.8909184721</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>694567.1481184721</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>627478.5182060151</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>646713.9164060152</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>659212.1622060152</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>680787.0862060152</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>758827.0791060152</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>630845.9809060151</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>626975.4407060151</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>671818.0503060151</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>684115.1506060151</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>696775.2653060151</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>694045.8619060152</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>718136.2331060153</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>741874.1183060153</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>855504.7678301751</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>840464.0150804763</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>796424.5712804763</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>777364.6089871491</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>764599.4189871491</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>762862.2207871492</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>768454.1250871492</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>772024.2161871492</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 AE ohlcv.xlsx
@@ -2524,7 +2524,7 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>578485.1459476058</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>552340.8222476059</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>611851.7834476059</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>595653.3892476059</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>582152.824818472</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>637573.8909184721</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>694567.1481184721</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>627478.5182060151</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>646713.9164060152</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>659212.1622060152</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>680787.0862060152</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>758827.0791060152</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>630845.9809060151</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>626975.4407060151</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>671818.0503060151</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>684115.1506060151</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>696775.2653060151</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>694045.8619060152</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>718136.2331060153</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>741874.1183060153</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>855504.7678301751</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>786860.2983301751</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>791805.7745301751</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>840464.0150804763</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>796424.5712804763</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>777364.6089871491</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>764599.4189871491</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>762862.2207871492</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>761289.2209871492</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>805747.8211871492</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>772024.2161871492</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
